--- a/public/uploads/excel-formats/vendor-pi.xlsx
+++ b/public/uploads/excel-formats/vendor-pi.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnofra\Downloads\manish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Order No</t>
-  </si>
-  <si>
-    <t>Purchse order No</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -47,32 +38,36 @@
     <t>HSN</t>
   </si>
   <si>
-    <t>Quantity Requirement</t>
-  </si>
-  <si>
-    <t>Available Quantity</t>
-  </si>
-  <si>
     <t>Purchase Rate Basic</t>
   </si>
   <si>
     <t>Vendor SKU Code</t>
+  </si>
+  <si>
+    <t>Sales Order No</t>
+  </si>
+  <si>
+    <t>Purchase Order No</t>
+  </si>
+  <si>
+    <t>Vendor Code</t>
+  </si>
+  <si>
+    <t>Portal Code</t>
+  </si>
+  <si>
+    <t>PO Quantity</t>
+  </si>
+  <si>
+    <t>PI Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,12 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,68 +378,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
